--- a/2017_movie.xlsx
+++ b/2017_movie.xlsx
@@ -19,20 +19,31 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -41,12 +52,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -144,6 +156,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43209.0)</f>
         <v>43209</v>
       </c>
+      <c r="J2" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("importxml(""https://www.boxofficemojo.com/yearly/chart/?view=releasedate&amp;view2=domestic&amp;yr=2017&amp;sort=gross&amp;order=DESC&amp;p=.htm"", ""//*[@id='body']/table[3]/tr/td[1]/table[1]/tr/td[2]/table[1]/tr/td/table[1]/tr/td/table[1]/tr/td[2]/b/a/@href"")"),"/movies/?id=starwars8.htm")</f>
+        <v>/movies/?id=starwars8.htm</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -182,6 +198,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43294.0)</f>
         <v>43294</v>
       </c>
+      <c r="J3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=beautyandthebeast2017.htm")</f>
+        <v>/movies/?id=beautyandthebeast2017.htm</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -220,6 +240,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43413.0)</f>
         <v>43413</v>
       </c>
+      <c r="J4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=wonderwoman.htm")</f>
+        <v>/movies/?id=wonderwoman.htm</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -258,6 +282,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43251.0)</f>
         <v>43251</v>
       </c>
+      <c r="J5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=jumanji2016.htm")</f>
+        <v>/movies/?id=jumanji2016.htm</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -296,6 +324,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43364.0)</f>
         <v>43364</v>
       </c>
+      <c r="J6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=marvel17a.htm")</f>
+        <v>/movies/?id=marvel17a.htm</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -334,6 +366,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43434.0)</f>
         <v>43434</v>
       </c>
+      <c r="J7" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=spiderman2017.htm")</f>
+        <v>/movies/?id=spiderman2017.htm</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -372,6 +408,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43448.0)</f>
         <v>43448</v>
       </c>
+      <c r="J8" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=it.htm")</f>
+        <v>/movies/?id=it.htm</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -410,6 +450,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43174.0)</f>
         <v>43174</v>
       </c>
+      <c r="J9" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=marvel2017.htm")</f>
+        <v>/movies/?id=marvel2017.htm</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -448,6 +492,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43455.0)</f>
         <v>43455</v>
       </c>
+      <c r="J10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=despicableme3.htm")</f>
+        <v>/movies/?id=despicableme3.htm</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -486,6 +534,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43174.0)</f>
         <v>43174</v>
       </c>
+      <c r="J11" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=dcfilm1117.htm")</f>
+        <v>/movies/?id=dcfilm1117.htm</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -524,6 +576,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43294.0)</f>
         <v>43294</v>
       </c>
+      <c r="J12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=wolverine2017.htm")</f>
+        <v>/movies/?id=wolverine2017.htm</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -562,6 +618,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43322.0)</f>
         <v>43322</v>
       </c>
+      <c r="J13" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=furious8.htm")</f>
+        <v>/movies/?id=furious8.htm</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -600,6 +660,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43216.0)</f>
         <v>43216</v>
       </c>
+      <c r="J14" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=pixar1117.htm")</f>
+        <v>/movies/?id=pixar1117.htm</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -638,6 +702,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43427.0)</f>
         <v>43427</v>
       </c>
+      <c r="J15" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=chrisnolan2017.htm")</f>
+        <v>/movies/?id=chrisnolan2017.htm</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -676,6 +744,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43146.0)</f>
         <v>43146</v>
       </c>
+      <c r="J16" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=blumhouse2.htm")</f>
+        <v>/movies/?id=blumhouse2.htm</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -714,6 +786,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43259.0)</f>
         <v>43259</v>
       </c>
+      <c r="J17" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=lego2.htm")</f>
+        <v>/movies/?id=lego2.htm</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -752,6 +828,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43406.0)</f>
         <v>43406</v>
       </c>
+      <c r="J18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=bossbaby.htm")</f>
+        <v>/movies/?id=bossbaby.htm</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -790,6 +870,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43307.0)</f>
         <v>43307</v>
       </c>
+      <c r="J19" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=greatestshowman.htm")</f>
+        <v>/movies/?id=greatestshowman.htm</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -828,6 +912,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43364.0)</f>
         <v>43364</v>
       </c>
+      <c r="J20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=potc5.htm")</f>
+        <v>/movies/?id=potc5.htm</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -866,6 +954,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43266.0)</f>
         <v>43266</v>
       </c>
+      <c r="J21" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=legendary2016.htm")</f>
+        <v>/movies/?id=legendary2016.htm</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -904,6 +996,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43406.0)</f>
         <v>43406</v>
       </c>
+      <c r="J22" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=cars3.htm")</f>
+        <v>/movies/?id=cars3.htm</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -942,6 +1038,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43434.0)</f>
         <v>43434</v>
       </c>
+      <c r="J23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=planetoftheapes16.htm")</f>
+        <v>/movies/?id=planetoftheapes16.htm</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -980,6 +1080,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43231.0)</f>
         <v>43231</v>
       </c>
+      <c r="J24" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=split2017.htm")</f>
+        <v>/movies/?id=split2017.htm</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1018,6 +1122,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43181.0)</f>
         <v>43181</v>
       </c>
+      <c r="J25" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=wonder.htm")</f>
+        <v>/movies/?id=wonder.htm</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1056,6 +1164,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43336.0)</f>
         <v>43336</v>
       </c>
+      <c r="J26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=transformers5.htm")</f>
+        <v>/movies/?id=transformers5.htm</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1094,6 +1206,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43392.0)</f>
         <v>43392</v>
       </c>
+      <c r="J27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=girltrip.htm")</f>
+        <v>/movies/?id=girltrip.htm</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1132,6 +1248,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43196.0)</f>
         <v>43196</v>
       </c>
+      <c r="J28" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=fiftyshadesdarker.htm")</f>
+        <v>/movies/?id=fiftyshadesdarker.htm</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1170,6 +1290,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43392.0)</f>
         <v>43392</v>
       </c>
+      <c r="J29" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=babydriver.htm")</f>
+        <v>/movies/?id=babydriver.htm</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1208,6 +1332,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43167.0)</f>
         <v>43167</v>
       </c>
+      <c r="J30" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=pitchperfect3.htm")</f>
+        <v>/movies/?id=pitchperfect3.htm</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1246,6 +1374,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43146.0)</f>
         <v>43146</v>
       </c>
+      <c r="J31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=daddyshome2.htm")</f>
+        <v>/movies/?id=daddyshome2.htm</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -1284,6 +1416,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
       </c>
+      <c r="J32" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=murderorientexpress17.htm")</f>
+        <v>/movies/?id=murderorientexpress17.htm</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -1322,6 +1458,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43406.0)</f>
         <v>43406</v>
       </c>
+      <c r="J33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=annabelle2.htm")</f>
+        <v>/movies/?id=annabelle2.htm</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -1360,6 +1500,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43104.0)</f>
         <v>43104</v>
       </c>
+      <c r="J34" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=kingsman2.htm")</f>
+        <v>/movies/?id=kingsman2.htm</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -1398,6 +1542,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43132.0)</f>
         <v>43132</v>
       </c>
+      <c r="J35" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=bladerunnersequel.htm")</f>
+        <v>/movies/?id=bladerunnersequel.htm</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -1436,6 +1584,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43217.0)</f>
         <v>43217</v>
       </c>
+      <c r="J36" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=johnwick2.htm")</f>
+        <v>/movies/?id=johnwick2.htm</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -1474,6 +1626,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43434.0)</f>
         <v>43434</v>
       </c>
+      <c r="J37" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=theemojimovie.htm")</f>
+        <v>/movies/?id=theemojimovie.htm</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -1512,6 +1668,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43252.0)</f>
         <v>43252</v>
       </c>
+      <c r="J38" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=powerrangers16.htm")</f>
+        <v>/movies/?id=powerrangers16.htm</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -1550,6 +1710,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43251.0)</f>
         <v>43251</v>
       </c>
+      <c r="J39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=ferdinand.htm")</f>
+        <v>/movies/?id=ferdinand.htm</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -1588,6 +1752,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43237.0)</f>
         <v>43237</v>
       </c>
+      <c r="J40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=untitledstevenspielberg.htm")</f>
+        <v>/movies/?id=untitledstevenspielberg.htm</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -1626,6 +1794,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43336.0)</f>
         <v>43336</v>
       </c>
+      <c r="J41" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=mummy2016.htm")</f>
+        <v>/movies/?id=mummy2016.htm</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -1664,6 +1836,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43406.0)</f>
         <v>43406</v>
       </c>
+      <c r="J42" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=hitmansbodyguard.htm")</f>
+        <v>/movies/?id=hitmansbodyguard.htm</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -1702,6 +1878,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43343.0)</f>
         <v>43343</v>
       </c>
+      <c r="J43" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=alienparadiselost.htm")</f>
+        <v>/movies/?id=alienparadiselost.htm</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -1740,6 +1920,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43406.0)</f>
         <v>43406</v>
       </c>
+      <c r="J44" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=captainunderpants.htm")</f>
+        <v>/movies/?id=captainunderpants.htm</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -1778,6 +1962,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43111.0)</f>
         <v>43111</v>
       </c>
+      <c r="J45" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=badmomschristmas.htm")</f>
+        <v>/movies/?id=badmomschristmas.htm</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -1816,6 +2004,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43238.0)</f>
         <v>43238</v>
       </c>
+      <c r="J46" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=adogspurpose.htm")</f>
+        <v>/movies/?id=adogspurpose.htm</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -1854,6 +2046,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43223.0)</f>
         <v>43223</v>
       </c>
+      <c r="J47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=theshapeofwater.htm")</f>
+        <v>/movies/?id=theshapeofwater.htm</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -1892,6 +2088,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43434.0)</f>
         <v>43434</v>
       </c>
+      <c r="J48" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=ninjago.htm")</f>
+        <v>/movies/?id=ninjago.htm</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -1930,6 +2130,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43308.0)</f>
         <v>43308</v>
       </c>
+      <c r="J49" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=baywatch.htm")</f>
+        <v>/movies/?id=baywatch.htm</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -1968,6 +2172,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43238.0)</f>
         <v>43238</v>
       </c>
+      <c r="J50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=theshack.htm")</f>
+        <v>/movies/?id=theshack.htm</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2006,6 +2214,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43202.0)</f>
         <v>43202</v>
       </c>
+      <c r="J51" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=darkesthour2017.htm")</f>
+        <v>/movies/?id=darkesthour2017.htm</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -2044,6 +2256,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43448.0)</f>
         <v>43448</v>
       </c>
+      <c r="J52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=blumhousehorror2018.htm")</f>
+        <v>/movies/?id=blumhousehorror2018.htm</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -2082,6 +2298,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43223.0)</f>
         <v>43223</v>
       </c>
+      <c r="J53" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=threebillboards.htm")</f>
+        <v>/movies/?id=threebillboards.htm</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -2120,6 +2340,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43378.0)</f>
         <v>43378</v>
       </c>
+      <c r="J54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=thecoldestcity.htm")</f>
+        <v>/movies/?id=thecoldestcity.htm</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -2158,6 +2382,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43448.0)</f>
         <v>43448</v>
       </c>
+      <c r="J55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=mena.htm")</f>
+        <v>/movies/?id=mena.htm</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -2196,6 +2424,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43392.0)</f>
         <v>43392</v>
       </c>
+      <c r="J56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=darktower.htm")</f>
+        <v>/movies/?id=darktower.htm</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -2234,6 +2466,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43195.0)</f>
         <v>43195</v>
       </c>
+      <c r="J57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=ladybird.htm")</f>
+        <v>/movies/?id=ladybird.htm</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -2272,6 +2508,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43448.0)</f>
         <v>43448</v>
       </c>
+      <c r="J58" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=amadeahalloween2.htm")</f>
+        <v>/movies/?id=amadeahalloween2.htm</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -2310,6 +2550,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43315.0)</f>
         <v>43315</v>
       </c>
+      <c r="J59" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=motherdaughter.htm")</f>
+        <v>/movies/?id=motherdaughter.htm</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -2348,6 +2592,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43252.0)</f>
         <v>43252</v>
       </c>
+      <c r="J60" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=greatwall.htm")</f>
+        <v>/movies/?id=greatwall.htm</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -2386,6 +2634,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43315.0)</f>
         <v>43315</v>
       </c>
+      <c r="J61" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=smurfs3.htm")</f>
+        <v>/movies/?id=smurfs3.htm</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -2424,6 +2676,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43294.0)</f>
         <v>43294</v>
       </c>
+      <c r="J62" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=goinginsty2017.htm")</f>
+        <v>/movies/?id=goinginsty2017.htm</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -2462,6 +2718,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43315.0)</f>
         <v>43315</v>
       </c>
+      <c r="J63" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=tupac.htm")</f>
+        <v>/movies/?id=tupac.htm</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -2500,6 +2760,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43175.0)</f>
         <v>43175</v>
       </c>
+      <c r="J64" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=xxx3.htm")</f>
+        <v>/movies/?id=xxx3.htm</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -2538,6 +2802,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43392.0)</f>
         <v>43392</v>
       </c>
+      <c r="J65" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=47metersdown.htm")</f>
+        <v>/movies/?id=47metersdown.htm</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -2576,6 +2844,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43395.0)</f>
         <v>43395</v>
       </c>
+      <c r="J66" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=thebigsick.htm")</f>
+        <v>/movies/?id=thebigsick.htm</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -2614,6 +2886,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43364.0)</f>
         <v>43364</v>
       </c>
+      <c r="J67" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=valerian.htm")</f>
+        <v>/movies/?id=valerian.htm</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -2652,6 +2928,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43146.0)</f>
         <v>43146</v>
       </c>
+      <c r="J68" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=thelamb.htm")</f>
+        <v>/movies/?id=thelamb.htm</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -2690,6 +2970,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43245.0)</f>
         <v>43245</v>
       </c>
+      <c r="J69" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=ghostintheshell2017.htm")</f>
+        <v>/movies/?id=ghostintheshell2017.htm</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -2728,6 +3012,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43301.0)</f>
         <v>43301</v>
       </c>
+      <c r="J70" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=kingarthur2016.htm")</f>
+        <v>/movies/?id=kingarthur2016.htm</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -2766,6 +3054,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43455.0)</f>
         <v>43455</v>
       </c>
+      <c r="J71" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=saw2017.htm")</f>
+        <v>/movies/?id=saw2017.htm</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -2804,6 +3096,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43413.0)</f>
         <v>43413</v>
       </c>
+      <c r="J72" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=americanassassin.htm")</f>
+        <v>/movies/?id=americanassassin.htm</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -2842,6 +3138,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43455.0)</f>
         <v>43455</v>
       </c>
+      <c r="J73" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=theforeigner.htm")</f>
+        <v>/movies/?id=theforeigner.htm</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -2880,6 +3180,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43308.0)</f>
         <v>43308</v>
       </c>
+      <c r="J74" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=everythingeverything.htm")</f>
+        <v>/movies/?id=everythingeverything.htm</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -2918,6 +3222,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43441.0)</f>
         <v>43441</v>
       </c>
+      <c r="J75" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=windriver.htm")</f>
+        <v>/movies/?id=windriver.htm</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -2956,6 +3264,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43111.0)</f>
         <v>43111</v>
       </c>
+      <c r="J76" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=geostorm.htm")</f>
+        <v>/movies/?id=geostorm.htm</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -2994,6 +3306,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43175.0)</f>
         <v>43175</v>
       </c>
+      <c r="J77" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=monstertrucks.htm")</f>
+        <v>/movies/?id=monstertrucks.htm</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -3032,6 +3348,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43203.0)</f>
         <v>43203</v>
       </c>
+      <c r="J78" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=fistfight.htm")</f>
+        <v>/movies/?id=fistfight.htm</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -3070,6 +3390,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43273.0)</f>
         <v>43273</v>
       </c>
+      <c r="J79" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=howtobealatinlover.htm")</f>
+        <v>/movies/?id=howtobealatinlover.htm</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -3108,6 +3432,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43420.0)</f>
         <v>43420</v>
       </c>
+      <c r="J80" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=kidnap2015.htm")</f>
+        <v>/movies/?id=kidnap2015.htm</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -3146,6 +3474,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43168.0)</f>
         <v>43168</v>
       </c>
+      <c r="J81" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=underworld5.htm")</f>
+        <v>/movies/?id=underworld5.htm</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -3184,6 +3516,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43455.0)</f>
         <v>43455</v>
       </c>
+      <c r="J82" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=mountainbetweenus.htm")</f>
+        <v>/movies/?id=mountainbetweenus.htm</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -3222,6 +3558,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43252.0)</f>
         <v>43252</v>
       </c>
+      <c r="J83" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=life2017.htm")</f>
+        <v>/movies/?id=life2017.htm</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -3260,6 +3600,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43209.0)</f>
         <v>43209</v>
       </c>
+      <c r="J84" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=itonya.htm")</f>
+        <v>/movies/?id=itonya.htm</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -3298,6 +3642,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43230.0)</f>
         <v>43230</v>
       </c>
+      <c r="J85" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=hostiles.htm")</f>
+        <v>/movies/?id=hostiles.htm</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -3336,6 +3684,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43167.0)</f>
         <v>43167</v>
       </c>
+      <c r="J86" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=mollysgame.htm")</f>
+        <v>/movies/?id=mollysgame.htm</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -3374,6 +3726,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43371.0)</f>
         <v>43371</v>
       </c>
+      <c r="J87" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=nutjob2.htm")</f>
+        <v>/movies/?id=nutjob2.htm</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -3412,6 +3768,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43182.0)</f>
         <v>43182</v>
       </c>
+      <c r="J88" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=rings.htm")</f>
+        <v>/movies/?id=rings.htm</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -3450,6 +3810,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43413.0)</f>
         <v>43413</v>
       </c>
+      <c r="J89" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=loganlucky.htm")</f>
+        <v>/movies/?id=loganlucky.htm</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -3488,6 +3852,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43413.0)</f>
         <v>43413</v>
       </c>
+      <c r="J90" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=homeagain.htm")</f>
+        <v>/movies/?id=homeagain.htm</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -3526,6 +3894,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43189.0)</f>
         <v>43189</v>
       </c>
+      <c r="J91" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=residentevil6.htm")</f>
+        <v>/movies/?id=residentevil6.htm</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -3564,6 +3936,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43343.0)</f>
         <v>43343</v>
       </c>
+      <c r="J92" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=thehouse.htm")</f>
+        <v>/movies/?id=thehouse.htm</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -3602,6 +3978,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43181.0)</f>
         <v>43181</v>
       </c>
+      <c r="J93" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=allthemoneyintheworld.htm")</f>
+        <v>/movies/?id=allthemoneyintheworld.htm</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -3640,6 +4020,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43336.0)</f>
         <v>43336</v>
       </c>
+      <c r="J94" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=gifted.htm")</f>
+        <v>/movies/?id=gifted.htm</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -3678,6 +4062,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43132.0)</f>
         <v>43132</v>
       </c>
+      <c r="J95" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=downsizing.htm")</f>
+        <v>/movies/?id=downsizing.htm</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -3716,6 +4104,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43147.0)</f>
         <v>43147</v>
       </c>
+      <c r="J96" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=thebyebyeman.htm")</f>
+        <v>/movies/?id=thebyebyeman.htm</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -3754,6 +4146,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43104.0)</f>
         <v>43104</v>
       </c>
+      <c r="J97" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=victoriaandabdul.htm")</f>
+        <v>/movies/?id=victoriaandabdul.htm</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -3792,6 +4188,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43343.0)</f>
         <v>43343</v>
       </c>
+      <c r="J98" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=rockthatbody.htm")</f>
+        <v>/movies/?id=rockthatbody.htm</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -3830,6 +4230,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
       </c>
+      <c r="J99" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=mylittlepony2017.htm")</f>
+        <v>/movies/?id=mylittlepony2017.htm</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -3868,6 +4272,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43441.0)</f>
         <v>43441</v>
       </c>
+      <c r="J100" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=leap.htm")</f>
+        <v>/movies/?id=leap.htm</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -3906,6 +4314,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43167.0)</f>
         <v>43167</v>
       </c>
+      <c r="J101" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"/movies/?id=thedisasterartist.htm")</f>
+        <v>/movies/?id=thedisasterartist.htm</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
